--- a/Dragonfall/gameData/shared/GemsPayment.xlsx
+++ b/Dragonfall/gameData/shared/GemsPayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="6"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="28680" windowHeight="16060" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="2" r:id="rId1"/>
@@ -2020,7 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2168,16 +2168,16 @@
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
